--- a/Final.automation/src/finalTest/data.xlsx
+++ b/Final.automation/src/finalTest/data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
   <si>
     <t>trainee2@tiliconveli.com</t>
   </si>
